--- a/mageproductcsv/resources/bra-electric-toothbrush.xlsx
+++ b/mageproductcsv/resources/bra-electric-toothbrush.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26722"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16640" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="200" windowWidth="27500" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="104">
   <si>
     <r>
       <t>BRA</t>
@@ -46,10 +46,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>BRA博朗TriZone 7000电动牙刷</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>BRA博朗TriZone 7000电动牙刷-「德藝緻」德國精品百貨</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -66,10 +62,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>https://img.alicdn.com/imgextra/i4/13724280/TB2cvEjipXXXXXnXXXXXXXXXXXX-13724280.jpg</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i3/13724280/TB2w628ipXXXXcaXXXXXXXXXXXX-13724280.jpg' /&gt;, &lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i2/13724280/TB2Q0bLipXXXXbMXpXXXXXXXXXX-13724280.jpg' /&gt;</t>
   </si>
   <si>
@@ -103,13 +95,6 @@
   <si>
     <t>清除较多牙菌斑 升级你的牙刷方式 晋升电动行列 3D技术 8800次左右扫动 40000次震动</t>
     <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://img.alicdn.com/imgextra/i4/744803350/TB2EBAflFXXXXcHXXXXXXXXXXXX_!!744803350.jpg</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://img30.360buyimg.com/popWareDetail/jfs/t2452/285/2140136566/285804/d3b7c701/56975dc0N0fb06fa1.jpg' /&gt;</t>
   </si>
   <si>
     <t>产品特点：同步刷牙动作，全新可视化刷牙体验；定制符合您的刷牙方式APP一秒变身遥控器；采用德国3D洁齿科技，搭载iBrush OS个人护理系统，每分钟48800次快速震动，前后震动4000次/分钟，左右震动8800次/分钟，3D洁齿科技，有效去除牙龈菌斑。iBrush3重压力控制系统真正快而不伤牙，拥有强大续航能力的安全电池1次完全充电10天持续使用。6种清洁工作模式：清洁，牙龈护理，敏感呵护，深层清理，清洁舌苔。原包装内含：
@@ -121,10 +106,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>BRA博朗PRO7000电动牙刷</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>BRA博朗PRO7000电动牙刷-「德藝緻」德國精品百貨</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -161,10 +142,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>https://img.alicdn.com/imgextra/i2/775439865/TB22UOBkVXXXXc.XXXXXXXXXXXX_!!775439865.jpg</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i1/199120028/TB2JQnUeXXXXXbiXpXXXXXXXXXX_!!199120028.jpg' /&gt;, &lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i1/199120028/TB2U7PQeXXXXXcfXpXXXXXXXXXX_!!199120028.jpg' /&gt;</t>
   </si>
   <si>
@@ -192,10 +169,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>https://img.alicdn.com/imgextra/i1/352525807/TB2vPksiXXXXXafXpXXXXXXXXXX_!!352525807.jpg</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i2/352525807/TB2xtAIiXXXXXbhXXXXXXXXXXXX_!!352525807.jpg' /&gt;, &lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i3/352525807/TB2wqMAiXXXXXcWXXXXXXXXXXXX_!!352525807.jpg' /&gt;</t>
   </si>
   <si>
@@ -223,10 +196,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>https://img.alicdn.com/imgextra/i4/89019395/TB2gpoYjFXXXXXgXpXXXXXXXXXX_!!89019395.jpg</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i1/89019395/TB2MIw.jFXXXXaHXXXXXXXXXXXX_!!89019395.jpg' /&gt;, &lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i3/754871581/TB2jt83jFXXXXb_XXXXXXXXXXXX_!!754871581.jpg' /&gt;</t>
   </si>
   <si>
@@ -254,10 +223,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>https://img.alicdn.com/imgextra/i1/112187793/TB2lqQKjFXXXXbtXXXXXXXXXXXX_!!112187793.jpg</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i1/112187793/TB2sZ7jjFXXXXb.XpXXXXXXXXXX_!!112187793.jpg' /&gt;, &lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i1/112187793/TB2HGASjFXXXXXIXXXXXXXXXXXX_!!112187793.jpg' /&gt;, &lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i1/112187793/TB2c1oFjFXXXXcvXXXXXXXXXXXX_!!112187793.jpg' /&gt;</t>
   </si>
   <si>
@@ -265,10 +230,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>BRA博朗Vitality电动牙刷</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>BRA博朗Vitality电动牙刷-「德藝緻」德國精品百貨</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -292,10 +253,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>BRA博朗PRO2500电动牙刷</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>BRA博朗PRO2500电动牙刷-「德藝緻」德國精品百貨</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
@@ -312,10 +269,6 @@
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
   <si>
-    <t>https://img.alicdn.com/imgextra/i1/744729018/TB2tEISjpXXXXaHXpXXXXXXXXXX_!!744729018.jpg</t>
-    <phoneticPr fontId="0" type="noConversion"/>
-  </si>
-  <si>
     <t>&lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i4/744729018/TB2jSJXjFXXXXaVXXXXXXXXXXXX_!!744729018.jpg' /&gt;, &lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i4/744729018/TB2jSJXjFXXXXaVXXXXXXXXXXXX_!!744729018.jpg' /&gt;, &lt;img  width='100%'  src='https://img.alicdn.com/imgextra/i1/744729018/TB2T4Q6jpXXXXcqXXXXXXXXXXXX_!!744729018.jpg' /&gt;</t>
   </si>
   <si>
@@ -351,16 +304,235 @@
   </si>
   <si>
     <t>brand</t>
+  </si>
+  <si>
+    <r>
+      <t>BRA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Libian SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>博朗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>TriZone 7000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Libian SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>电动牙刷</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>BRA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Libian SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>博朗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PRO7000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Libian SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>电动牙刷</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>BRA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Libian SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>博朗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Vitality</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Libian SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>电动牙刷</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>BRA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Libian SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>博朗</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PRO2500</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Libian SC Regular"/>
+        <family val="2"/>
+      </rPr>
+      <t>电动牙刷</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;img  width='100%'  src='http://img30.360buyimg.com/popWareDetail/jfs/t2452/285/2140136566/285804/d3b7c701/56975dc0N0fb06fa1.jpg' /&gt;</t>
+  </si>
+  <si>
+    <t>/braun/braun_toothbrush_Trizone7000.jpg</t>
+  </si>
+  <si>
+    <t>/braun/braun_toothbrush_Trizone2000.jpg</t>
+  </si>
+  <si>
+    <t>/braun/braun_oral_vitality.jpg</t>
+  </si>
+  <si>
+    <t>/braun/braun_toothbrush_PRO2500.jpg</t>
+  </si>
+  <si>
+    <t>/braun/braun_toothbrush_PRO3000.jpg</t>
+  </si>
+  <si>
+    <t>/braun/braun_toothbrush_PRO4000.jpg</t>
+  </si>
+  <si>
+    <t>/braun/braun_toothbrush_PRO6000.jpg</t>
+  </si>
+  <si>
+    <t>/braun/braun_toothbrush_PRO7000.jpg</t>
+  </si>
+  <si>
+    <t>/braun/braun_toothbrush_PRO2000.jpg</t>
+  </si>
+  <si>
+    <t>sku</t>
+  </si>
+  <si>
+    <t>url-key</t>
+  </si>
+  <si>
+    <t>zh-braun_toothbrush_trizone7000</t>
+  </si>
+  <si>
+    <t>zh-braun_toothbrush_trizone2000</t>
+  </si>
+  <si>
+    <t>braun_toothbrush_trizone7000</t>
+  </si>
+  <si>
+    <t>braun_toothbrush_trizone2000</t>
+  </si>
+  <si>
+    <t>zh-braun_toothbrush_PRO7000</t>
+  </si>
+  <si>
+    <t>braun_toothbrush_PRO7000</t>
+  </si>
+  <si>
+    <t>zh-braun_toothbrush_PRO6000</t>
+  </si>
+  <si>
+    <t>braun_toothbrush_PRO6000</t>
+  </si>
+  <si>
+    <t>zh-braun_toothbrush_PRO4000</t>
+  </si>
+  <si>
+    <t>zh-braun_toothbrush_PRO3000</t>
+  </si>
+  <si>
+    <t>zh-braun_toothbrush_PRO2000</t>
+  </si>
+  <si>
+    <t>braun_toothbrush_PRO4000</t>
+  </si>
+  <si>
+    <t>braun_toothbrush_PRO3000</t>
+  </si>
+  <si>
+    <t>braun_toothbrush_PRO2000</t>
+  </si>
+  <si>
+    <t>braun_oral_vitality</t>
+  </si>
+  <si>
+    <t>zh-braun_oral_vitality</t>
+  </si>
+  <si>
+    <t>zh-braun_toothbrush_PRO2500</t>
+  </si>
+  <si>
+    <t>braun_toothbrush_PRO2500</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0\ [$€-1];[Red]\-#,##0\ [$€-1]"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -374,6 +546,12 @@
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Libian SC Regular"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -407,7 +585,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -743,50 +921,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="4" max="4" width="29.6640625" customWidth="1"/>
+    <col min="9" max="9" width="41.1640625" customWidth="1"/>
+    <col min="10" max="10" width="255.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.1640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
+        <v>69</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>85</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" ht="18">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -797,338 +986,367 @@
         <v>360</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
+      <c r="L2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2">
         <v>160</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="I3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="18">
+      <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="C4" s="2">
         <v>360</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>82</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
+      <c r="L4" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C5" s="2">
         <v>280</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>30</v>
+        <v>19</v>
+      </c>
+      <c r="I5" t="s">
+        <v>81</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2">
         <v>139</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
+      </c>
+      <c r="I6" t="s">
+        <v>80</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="C7" s="2">
         <v>152</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
+      </c>
+      <c r="I7" t="s">
+        <v>79</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C8" s="2">
         <v>139</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>54</v>
+        <v>45</v>
+      </c>
+      <c r="I8" t="s">
+        <v>83</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>99</v>
+      </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" ht="18">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="C9" s="2">
         <v>58</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I9" s="1"/>
+        <v>51</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="J9" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" ht="18">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="C10" s="2">
         <v>85</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>69</v>
+        <v>57</v>
+      </c>
+      <c r="I10" t="s">
+        <v>78</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
+        <v>7</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="M10" s="1" t="s">
+        <v>103</v>
+      </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="I2" r:id="rId1"/>
-    <hyperlink ref="I3" r:id="rId2"/>
-    <hyperlink ref="I4" r:id="rId3"/>
-    <hyperlink ref="I5" r:id="rId4"/>
-    <hyperlink ref="I6" r:id="rId5"/>
-    <hyperlink ref="I7" r:id="rId6"/>
-    <hyperlink ref="I8" r:id="rId7"/>
-    <hyperlink ref="I10" r:id="rId8"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
